--- a/SchedulingData/dynamic14/pso/scheduling2_8.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling2_8.xlsx
@@ -462,211 +462,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>224.82</v>
+        <v>231.56</v>
       </c>
       <c r="D2" t="n">
-        <v>293.94</v>
+        <v>289.04</v>
       </c>
       <c r="E2" t="n">
-        <v>12.756</v>
+        <v>10.796</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>252.72</v>
+        <v>257.74</v>
       </c>
       <c r="D3" t="n">
-        <v>303.76</v>
+        <v>315.34</v>
       </c>
       <c r="E3" t="n">
-        <v>11.884</v>
+        <v>8.776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>257.76</v>
+        <v>241.22</v>
       </c>
       <c r="D4" t="n">
-        <v>309.14</v>
+        <v>271.62</v>
       </c>
       <c r="E4" t="n">
-        <v>12.276</v>
+        <v>13.028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>309.14</v>
+        <v>315.34</v>
       </c>
       <c r="D5" t="n">
-        <v>381.74</v>
+        <v>361.4</v>
       </c>
       <c r="E5" t="n">
-        <v>8.635999999999999</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>293.94</v>
+        <v>238.12</v>
       </c>
       <c r="D6" t="n">
-        <v>358.64</v>
+        <v>298.22</v>
       </c>
       <c r="E6" t="n">
-        <v>9.375999999999999</v>
+        <v>13.308</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>222</v>
+        <v>298.22</v>
       </c>
       <c r="D7" t="n">
-        <v>284.28</v>
+        <v>360.44</v>
       </c>
       <c r="E7" t="n">
-        <v>15.552</v>
+        <v>8.715999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>223.82</v>
+        <v>203.6</v>
       </c>
       <c r="D8" t="n">
-        <v>289.68</v>
+        <v>271.3</v>
       </c>
       <c r="E8" t="n">
-        <v>12.212</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>358.64</v>
+        <v>271.62</v>
       </c>
       <c r="D9" t="n">
-        <v>434.7</v>
+        <v>341.26</v>
       </c>
       <c r="E9" t="n">
-        <v>5.4</v>
+        <v>9.164</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>303.76</v>
+        <v>220.24</v>
       </c>
       <c r="D10" t="n">
-        <v>382.66</v>
+        <v>263.9</v>
       </c>
       <c r="E10" t="n">
-        <v>7.084</v>
+        <v>13.78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>284.28</v>
+        <v>361.4</v>
       </c>
       <c r="D11" t="n">
-        <v>341.56</v>
+        <v>420.72</v>
       </c>
       <c r="E11" t="n">
-        <v>11.444</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>341.56</v>
+        <v>420.72</v>
       </c>
       <c r="D12" t="n">
-        <v>405.26</v>
+        <v>505.54</v>
       </c>
       <c r="E12" t="n">
-        <v>8.164</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -675,193 +675,193 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>242.9</v>
+        <v>289.04</v>
       </c>
       <c r="D13" t="n">
-        <v>308.96</v>
+        <v>361.96</v>
       </c>
       <c r="E13" t="n">
-        <v>10.284</v>
+        <v>7.584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>405.26</v>
+        <v>361.96</v>
       </c>
       <c r="D14" t="n">
-        <v>463.06</v>
+        <v>409.56</v>
       </c>
       <c r="E14" t="n">
-        <v>5.004</v>
+        <v>4.944</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>434.7</v>
+        <v>263.9</v>
       </c>
       <c r="D15" t="n">
-        <v>490.46</v>
+        <v>343.12</v>
       </c>
       <c r="E15" t="n">
-        <v>2.424</v>
+        <v>9.468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>308.96</v>
+        <v>341.26</v>
       </c>
       <c r="D16" t="n">
-        <v>365.3</v>
+        <v>401.66</v>
       </c>
       <c r="E16" t="n">
-        <v>6.28</v>
+        <v>5.244</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>289.68</v>
+        <v>401.66</v>
       </c>
       <c r="D17" t="n">
-        <v>339.98</v>
+        <v>477.5</v>
       </c>
       <c r="E17" t="n">
-        <v>9.792</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>365.3</v>
+        <v>477.5</v>
       </c>
       <c r="D18" t="n">
-        <v>403</v>
+        <v>565.48</v>
       </c>
       <c r="E18" t="n">
-        <v>3.64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>463.06</v>
+        <v>343.12</v>
       </c>
       <c r="D19" t="n">
-        <v>549.96</v>
+        <v>395.32</v>
       </c>
       <c r="E19" t="n">
-        <v>0.384</v>
+        <v>6.388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>549.96</v>
+        <v>360.44</v>
       </c>
       <c r="D20" t="n">
-        <v>626.1900000000001</v>
+        <v>407.64</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>4.636</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>382.66</v>
+        <v>409.56</v>
       </c>
       <c r="D21" t="n">
-        <v>454.88</v>
+        <v>459.02</v>
       </c>
       <c r="E21" t="n">
-        <v>2.492</v>
+        <v>2.128</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>454.88</v>
+        <v>565.48</v>
       </c>
       <c r="D22" t="n">
-        <v>500.04</v>
+        <v>609.3200000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>0.116</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>500.04</v>
+        <v>459.02</v>
       </c>
       <c r="D23" t="n">
-        <v>601.21</v>
+        <v>536.46</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
@@ -880,40 +880,40 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>626.1900000000001</v>
+        <v>536.46</v>
       </c>
       <c r="D24" t="n">
-        <v>670.39</v>
+        <v>606.62</v>
       </c>
       <c r="E24" t="n">
-        <v>26.28</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>339.98</v>
+        <v>505.54</v>
       </c>
       <c r="D25" t="n">
-        <v>429</v>
+        <v>572.2</v>
       </c>
       <c r="E25" t="n">
-        <v>5.48</v>
+        <v>26.024</v>
       </c>
     </row>
     <row r="26">
@@ -922,55 +922,55 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>403</v>
+        <v>606.62</v>
       </c>
       <c r="D26" t="n">
-        <v>470.82</v>
+        <v>659.96</v>
       </c>
       <c r="E26" t="n">
-        <v>0.468</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>470.82</v>
+        <v>271.3</v>
       </c>
       <c r="D27" t="n">
-        <v>541.78</v>
+        <v>317.26</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>9.584</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>429</v>
+        <v>572.2</v>
       </c>
       <c r="D28" t="n">
-        <v>482.3</v>
+        <v>632.98</v>
       </c>
       <c r="E28" t="n">
-        <v>3.24</v>
+        <v>23.056</v>
       </c>
     </row>
     <row r="29">
@@ -979,36 +979,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>490.46</v>
+        <v>632.98</v>
       </c>
       <c r="D29" t="n">
-        <v>587.11</v>
+        <v>715.1799999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>18.436</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>587.11</v>
+        <v>317.26</v>
       </c>
       <c r="D30" t="n">
-        <v>655.45</v>
+        <v>356.42</v>
       </c>
       <c r="E30" t="n">
-        <v>27.296</v>
+        <v>6.308</v>
       </c>
     </row>
     <row r="31">
@@ -1017,112 +1017,112 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>541.78</v>
+        <v>659.96</v>
       </c>
       <c r="D31" t="n">
-        <v>598.0599999999999</v>
+        <v>693.4</v>
       </c>
       <c r="E31" t="n">
-        <v>27.032</v>
+        <v>22.216</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>598.0599999999999</v>
+        <v>356.42</v>
       </c>
       <c r="D32" t="n">
-        <v>652.12</v>
+        <v>400.8</v>
       </c>
       <c r="E32" t="n">
-        <v>23.756</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601.21</v>
+        <v>395.32</v>
       </c>
       <c r="D33" t="n">
-        <v>683.41</v>
+        <v>429.02</v>
       </c>
       <c r="E33" t="n">
-        <v>26.92</v>
+        <v>4.148</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>655.45</v>
+        <v>400.8</v>
       </c>
       <c r="D34" t="n">
-        <v>718.39</v>
+        <v>463.42</v>
       </c>
       <c r="E34" t="n">
-        <v>24.592</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>670.39</v>
+        <v>463.42</v>
       </c>
       <c r="D35" t="n">
-        <v>734.27</v>
+        <v>534.66</v>
       </c>
       <c r="E35" t="n">
-        <v>23.472</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>482.3</v>
+        <v>609.3200000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>557.52</v>
+        <v>651.48</v>
       </c>
       <c r="E36" t="n">
-        <v>0.328</v>
+        <v>24.7</v>
       </c>
     </row>
     <row r="37">
@@ -1131,36 +1131,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>557.52</v>
+        <v>429.02</v>
       </c>
       <c r="D37" t="n">
-        <v>648.46</v>
+        <v>524.76</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>652.12</v>
+        <v>524.76</v>
       </c>
       <c r="D38" t="n">
-        <v>718.8</v>
+        <v>610.23</v>
       </c>
       <c r="E38" t="n">
-        <v>20.228</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>381.74</v>
+        <v>407.64</v>
       </c>
       <c r="D39" t="n">
-        <v>431.78</v>
+        <v>468.78</v>
       </c>
       <c r="E39" t="n">
-        <v>4.772</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>431.78</v>
+        <v>468.78</v>
       </c>
       <c r="D40" t="n">
-        <v>484.82</v>
+        <v>549.22</v>
       </c>
       <c r="E40" t="n">
-        <v>2.068</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>718.8</v>
+        <v>651.48</v>
       </c>
       <c r="D41" t="n">
-        <v>774</v>
+        <v>706.6</v>
       </c>
       <c r="E41" t="n">
-        <v>17.828</v>
+        <v>21.788</v>
       </c>
     </row>
     <row r="42">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>648.46</v>
+        <v>610.23</v>
       </c>
       <c r="D42" t="n">
-        <v>718.62</v>
+        <v>675.39</v>
       </c>
       <c r="E42" t="n">
         <v>27.624</v>
